--- a/data/trans_camb/P43C-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Dificultad-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>10.44076401119635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.633371872116669</v>
+        <v>-2.633371872116663</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.60718481685499</v>
+        <v>11.30891554412384</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.350419620381597</v>
+        <v>6.015851760504746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.580751287011981</v>
+        <v>-7.916521241506596</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.42732750837497</v>
+        <v>20.1057718561186</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.83511590966356</v>
+        <v>14.90515115694659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.65478289469303</v>
+        <v>2.352523140827327</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.206501865892741</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.05208394755387658</v>
+        <v>-0.05208394755387647</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2171805407981164</v>
+        <v>0.2123259346583125</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.119791532931775</v>
+        <v>0.1126378012041752</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1457960435308403</v>
+        <v>-0.1533535930129064</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4274066262099926</v>
+        <v>0.4168965189888699</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3061858925778048</v>
+        <v>0.3110486602305906</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05335639707511192</v>
+        <v>0.04958871383382562</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>13.72877476886753</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.622641089082011</v>
+        <v>1.622641089082</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.35746852500485</v>
+        <v>9.954061449205819</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.312901166729977</v>
+        <v>9.548860146116485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.964060683743444</v>
+        <v>-2.579603867083293</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.9252673602055</v>
+        <v>18.69207736322598</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.88649931889558</v>
+        <v>18.16563454222376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.990751178227013</v>
+        <v>6.158223873496563</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.2708132038062199</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.0320081463466358</v>
+        <v>0.03200814634663558</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1954389510946211</v>
+        <v>0.1967901763209205</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1788591458727451</v>
+        <v>0.1785017450405911</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05520807724762354</v>
+        <v>-0.04893501712231631</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3913943551945443</v>
+        <v>0.3883429047906518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3711907713608902</v>
+        <v>0.3712906191747434</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1246562205029112</v>
+        <v>0.1261686875424267</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>6.550430091391569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.292272315462865</v>
+        <v>6.292272315462855</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2214159839490432</v>
+        <v>-0.2786568568904504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.446587476886967</v>
+        <v>1.767519158160796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.76854922777654</v>
+        <v>1.639149321575585</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.638477465990661</v>
+        <v>9.123149786786362</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.45351047660446</v>
+        <v>11.15788656326304</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.97665085928545</v>
+        <v>10.62585366328988</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.1160770764900633</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1115023845255827</v>
+        <v>0.1115023845255825</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.005126874149572069</v>
+        <v>-0.004954964557905745</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02944285776567302</v>
+        <v>0.0306153997550589</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.02988589073347513</v>
+        <v>0.0286565985005636</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1759397566565263</v>
+        <v>0.1665087932096803</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2159651094348173</v>
+        <v>0.2031919770585784</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2024997795595197</v>
+        <v>0.1964297540639856</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.42401280931916</v>
+        <v>-3.883565953291952</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8285476752222733</v>
+        <v>0.001169622830889643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.854605972233037</v>
+        <v>-4.586980820211055</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.115844575464036</v>
+        <v>9.467107396760554</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.47348129942131</v>
+        <v>13.06954358908168</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.356404316727547</v>
+        <v>7.343934286998095</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0629789835677954</v>
+        <v>-0.05603400023739359</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01209554312236584</v>
+        <v>0.0004055516231979406</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05632673189079052</v>
+        <v>-0.06539832541032152</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1501900794677296</v>
+        <v>0.1538894521878391</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2057949188346987</v>
+        <v>0.2146247021320585</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1373032308308928</v>
+        <v>0.121860040263152</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.697140210400665</v>
+        <v>8.780619873892604</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.749823615569753</v>
+        <v>7.708577544399958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.501653862818839</v>
+        <v>1.603074097563803</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.58370517974708</v>
+        <v>13.60109324219823</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.55577009358376</v>
+        <v>12.39856813111303</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.396108638831453</v>
+        <v>6.625528028350826</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1580018388677094</v>
+        <v>0.1595955003616313</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1413545492652476</v>
+        <v>0.1392662260640292</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02708323286549579</v>
+        <v>0.02922089739540622</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2586582802191461</v>
+        <v>0.2588571484473656</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2406639657549417</v>
+        <v>0.2362493850491179</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1213629570844337</v>
+        <v>0.1265103096051765</v>
       </c>
     </row>
     <row r="34">
